--- a/SO SACH/0310686815/2016/BANGKE - 16.xlsx
+++ b/SO SACH/0310686815/2016/BANGKE - 16.xlsx
@@ -2857,6 +2857,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2878,17 +2890,14 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2902,23 +2911,29 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2938,45 +2953,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2994,6 +2970,30 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3036,7 +3036,7 @@
         <xdr:cNvPr id="2" name="Text Box 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3241,7 +3241,7 @@
         <xdr:cNvPr id="2" name="Text Box 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3706,7 +3706,7 @@
     <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A12" sqref="A12"/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17:H194"/>
+      <selection pane="bottomLeft" activeCell="J212" sqref="J212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3762,70 +3762,70 @@
       <c r="M3" s="37"/>
     </row>
     <row r="4" spans="1:15" s="36" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="125" t="s">
+      <c r="B4" s="118" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="125"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="125"/>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="125"/>
-      <c r="L4" s="125"/>
-      <c r="M4" s="125"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="118"/>
+      <c r="M4" s="118"/>
     </row>
     <row r="5" spans="1:15" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="126"/>
-      <c r="L5" s="126"/>
-      <c r="M5" s="126"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="119"/>
+      <c r="L5" s="119"/>
+      <c r="M5" s="119"/>
     </row>
     <row r="6" spans="1:15" s="36" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="127" t="s">
+      <c r="B6" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="127"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="127"/>
-      <c r="F6" s="127"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="127"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="127"/>
-      <c r="L6" s="127"/>
-      <c r="M6" s="127"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="120"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="120"/>
+      <c r="H6" s="120"/>
+      <c r="I6" s="120"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="120"/>
+      <c r="M6" s="120"/>
     </row>
     <row r="7" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="127" t="str">
-        <f>"Kỳ tính thuế: "&amp;IF(LEFT(O14,1)="Q","Quý "&amp;RIGHT(O14,1),"Tháng "&amp;O14)&amp;" Năm "&amp;YEAR(F28)</f>
-        <v>Kỳ tính thuế: Tháng 2 Năm 2016</v>
-      </c>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="127"/>
-      <c r="G7" s="127"/>
-      <c r="H7" s="127"/>
-      <c r="I7" s="127"/>
-      <c r="J7" s="127"/>
-      <c r="K7" s="127"/>
-      <c r="L7" s="127"/>
-      <c r="M7" s="127"/>
+      <c r="B7" s="120" t="str">
+        <f>"Kỳ tính thuế: Quý   "&amp;O14&amp;"  Năm  "&amp;YEAR(F26)</f>
+        <v>Kỳ tính thuế: Quý   2  Năm  2016</v>
+      </c>
+      <c r="C7" s="120"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="120"/>
+      <c r="M7" s="120"/>
     </row>
     <row r="8" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="38"/>
@@ -3850,67 +3850,67 @@
       </c>
     </row>
     <row r="11" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="128" t="s">
+      <c r="B11" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="128"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="128"/>
-      <c r="G11" s="128"/>
-      <c r="H11" s="128"/>
-      <c r="I11" s="128"/>
-      <c r="J11" s="128"/>
-      <c r="K11" s="128"/>
-      <c r="L11" s="128"/>
-      <c r="M11" s="128"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="121"/>
+      <c r="K11" s="121"/>
+      <c r="L11" s="121"/>
+      <c r="M11" s="121"/>
     </row>
     <row r="12" spans="1:15" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="120" t="s">
+      <c r="B12" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="118" t="s">
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="126"/>
+      <c r="G12" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="118" t="s">
+      <c r="H12" s="122" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="118" t="s">
+      <c r="I12" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="118" t="s">
+      <c r="J12" s="122" t="s">
         <v>66</v>
       </c>
-      <c r="K12" s="119" t="s">
+      <c r="K12" s="123" t="s">
         <v>67</v>
       </c>
-      <c r="L12" s="118" t="s">
+      <c r="L12" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="118" t="s">
+      <c r="M12" s="122" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="36" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="120"/>
-      <c r="C13" s="123"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="118"/>
-      <c r="J13" s="118"/>
-      <c r="K13" s="119"/>
-      <c r="L13" s="118"/>
-      <c r="M13" s="118"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="122"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="122"/>
+      <c r="M13" s="122"/>
     </row>
     <row r="14" spans="1:15" s="36" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="120"/>
+      <c r="B14" s="124"/>
       <c r="C14" s="41" t="s">
         <v>43</v>
       </c>
@@ -3923,13 +3923,13 @@
       <c r="F14" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="118"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="118"/>
-      <c r="J14" s="118"/>
-      <c r="K14" s="119"/>
-      <c r="L14" s="118"/>
-      <c r="M14" s="118"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="122"/>
+      <c r="K14" s="123"/>
+      <c r="L14" s="122"/>
+      <c r="M14" s="122"/>
       <c r="N14" s="117" t="str">
         <f>IF(OR($O$14=4,$O$14=6,$O$14=9,$O$14=11),"30",IF($O$14=2,"28","31"))</f>
         <v>28</v>
@@ -11375,8 +11375,8 @@
       <c r="H211" s="37"/>
       <c r="I211" s="37"/>
       <c r="J211" s="113" t="str">
-        <f>"Bình Chánh, Ngày  "&amp;N14&amp;"   Tháng   "&amp;O14&amp;"   Năm  "&amp;YEAR(F49)</f>
-        <v>Bình Chánh, Ngày  28   Tháng   2   Năm  2016</v>
+        <f>"Bình Chánh, "&amp;IF($O$14=1,"Ngày  31  Tháng  03  ",IF($O$14=2,"Ngày  30  Tháng  06  ",IF($O$14=3," Ngày 30  Tháng  09  ",IF($O$14=4," Ngày  31  Tháng  12  "))))&amp;"Năm  "&amp;YEAR(F26)</f>
+        <v>Bình Chánh, Ngày  30  Tháng  06  Năm  2016</v>
       </c>
       <c r="K211" s="113"/>
       <c r="N211" s="55"/>
@@ -11439,11 +11439,6 @@
     <sortCondition ref="F240:F249"/>
   </sortState>
   <mergeCells count="14">
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B6:M6"/>
-    <mergeCell ref="B7:M7"/>
-    <mergeCell ref="B11:M11"/>
     <mergeCell ref="J12:J14"/>
     <mergeCell ref="K12:K14"/>
     <mergeCell ref="L12:L14"/>
@@ -11453,10 +11448,15 @@
     <mergeCell ref="G12:G14"/>
     <mergeCell ref="H12:H14"/>
     <mergeCell ref="I12:I14"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="B7:M7"/>
+    <mergeCell ref="B11:M11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O14">
-      <formula1>"1,2,3,4,5,6,7,8,9,10,11,12"</formula1>
+      <formula1>"1,2,3,4"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
@@ -11476,9 +11476,9 @@
   <dimension ref="A1:N347"/>
   <sheetViews>
     <sheetView topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A317" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A321" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A12" sqref="A12"/>
-      <selection pane="bottomLeft" activeCell="L250" sqref="L250:L333"/>
+      <selection pane="bottomLeft" activeCell="I344" sqref="I344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11533,66 +11533,66 @@
       <c r="L3" s="15"/>
     </row>
     <row r="4" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="133" t="s">
+      <c r="B4" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="133"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="133"/>
-      <c r="H4" s="133"/>
-      <c r="I4" s="133"/>
-      <c r="J4" s="133"/>
-      <c r="K4" s="133"/>
-      <c r="L4" s="133"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="129"/>
+      <c r="L4" s="129"/>
     </row>
     <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="134"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="134"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="134"/>
-      <c r="J5" s="134"/>
-      <c r="K5" s="134"/>
-      <c r="L5" s="134"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="130"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="130"/>
+      <c r="K5" s="130"/>
+      <c r="L5" s="130"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="135" t="s">
+      <c r="B6" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="135"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135"/>
-      <c r="G6" s="135"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="135"/>
-      <c r="J6" s="135"/>
-      <c r="K6" s="135"/>
-      <c r="L6" s="135"/>
+      <c r="C6" s="131"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="131"/>
+      <c r="L6" s="131"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="135" t="str">
-        <f>"Kỳ tính thuế: "&amp;IF(LEFT(N14,1)="Q","Quý "&amp;RIGHT(N14,1),"Tháng "&amp;N14)&amp;" Năm "&amp;YEAR(F28)</f>
-        <v>Kỳ tính thuế: Tháng 2 Năm 2016</v>
-      </c>
-      <c r="C7" s="135"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="135"/>
-      <c r="H7" s="135"/>
-      <c r="I7" s="135"/>
-      <c r="J7" s="135"/>
-      <c r="K7" s="135"/>
-      <c r="L7" s="135"/>
+      <c r="B7" s="131" t="str">
+        <f>"Kỳ tính thuế: Quý   "&amp;N14&amp;"  Năm  "&amp;YEAR(F26)</f>
+        <v>Kỳ tính thuế: Quý   2  Năm  2016</v>
+      </c>
+      <c r="C7" s="131"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="131"/>
+      <c r="G7" s="131"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="131"/>
+      <c r="J7" s="131"/>
+      <c r="K7" s="131"/>
+      <c r="L7" s="131"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" s="17"/>
@@ -11616,62 +11616,62 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="131" t="s">
+      <c r="B11" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="131"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="131"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="131"/>
-      <c r="H11" s="131"/>
-      <c r="I11" s="131"/>
-      <c r="J11" s="131"/>
-      <c r="K11" s="131"/>
-      <c r="L11" s="131"/>
+      <c r="C11" s="134"/>
+      <c r="D11" s="134"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="134"/>
+      <c r="J11" s="134"/>
+      <c r="K11" s="134"/>
+      <c r="L11" s="134"/>
     </row>
     <row r="12" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="132" t="s">
+      <c r="B12" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="132"/>
-      <c r="D12" s="132"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="132"/>
-      <c r="G12" s="132" t="s">
+      <c r="C12" s="135"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="135"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="132" t="s">
+      <c r="H12" s="135" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="132" t="s">
+      <c r="I12" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="132" t="s">
+      <c r="J12" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="132" t="s">
+      <c r="K12" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="132" t="s">
+      <c r="L12" s="135" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="132"/>
-      <c r="C13" s="132"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="132"/>
-      <c r="F13" s="132"/>
-      <c r="G13" s="132"/>
-      <c r="H13" s="132"/>
-      <c r="I13" s="132"/>
-      <c r="J13" s="132"/>
-      <c r="K13" s="132"/>
-      <c r="L13" s="132"/>
+      <c r="B13" s="135"/>
+      <c r="C13" s="135"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="135"/>
+      <c r="H13" s="135"/>
+      <c r="I13" s="135"/>
+      <c r="J13" s="135"/>
+      <c r="K13" s="135"/>
+      <c r="L13" s="135"/>
     </row>
     <row r="14" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="132"/>
+      <c r="B14" s="135"/>
       <c r="C14" s="112" t="s">
         <v>43</v>
       </c>
@@ -11684,12 +11684,12 @@
       <c r="F14" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="132"/>
-      <c r="H14" s="132"/>
-      <c r="I14" s="132"/>
-      <c r="J14" s="132"/>
-      <c r="K14" s="132"/>
-      <c r="L14" s="132"/>
+      <c r="G14" s="135"/>
+      <c r="H14" s="135"/>
+      <c r="I14" s="135"/>
+      <c r="J14" s="135"/>
+      <c r="K14" s="135"/>
+      <c r="L14" s="135"/>
       <c r="N14" s="116">
         <v>2</v>
       </c>
@@ -11730,16 +11730,16 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="129" t="s">
+      <c r="B16" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="130"/>
-      <c r="D16" s="130"/>
-      <c r="E16" s="130"/>
-      <c r="F16" s="130"/>
-      <c r="G16" s="130"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="130"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="133"/>
       <c r="J16" s="19"/>
       <c r="K16" s="19"/>
       <c r="L16" s="20"/>
@@ -11773,16 +11773,16 @@
       <c r="L18" s="22"/>
     </row>
     <row r="19" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="129" t="s">
+      <c r="B19" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="130"/>
-      <c r="D19" s="130"/>
-      <c r="E19" s="130"/>
-      <c r="F19" s="130"/>
-      <c r="G19" s="130"/>
-      <c r="H19" s="130"/>
-      <c r="I19" s="130"/>
+      <c r="C19" s="133"/>
+      <c r="D19" s="133"/>
+      <c r="E19" s="133"/>
+      <c r="F19" s="133"/>
+      <c r="G19" s="133"/>
+      <c r="H19" s="133"/>
+      <c r="I19" s="133"/>
       <c r="J19" s="19"/>
       <c r="K19" s="19"/>
       <c r="L19" s="24"/>
@@ -11816,16 +11816,16 @@
       <c r="L21" s="22"/>
     </row>
     <row r="22" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="129" t="s">
+      <c r="B22" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="130"/>
-      <c r="D22" s="130"/>
-      <c r="E22" s="130"/>
-      <c r="F22" s="130"/>
-      <c r="G22" s="130"/>
-      <c r="H22" s="130"/>
-      <c r="I22" s="130"/>
+      <c r="C22" s="133"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="133"/>
       <c r="J22" s="19"/>
       <c r="K22" s="19"/>
       <c r="L22" s="24"/>
@@ -23305,16 +23305,16 @@
     </row>
     <row r="336" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="337" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B337" s="129" t="s">
+      <c r="B337" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="C337" s="130"/>
-      <c r="D337" s="130"/>
-      <c r="E337" s="130"/>
-      <c r="F337" s="130"/>
-      <c r="G337" s="130"/>
-      <c r="H337" s="130"/>
-      <c r="I337" s="130"/>
+      <c r="C337" s="133"/>
+      <c r="D337" s="133"/>
+      <c r="E337" s="133"/>
+      <c r="F337" s="133"/>
+      <c r="G337" s="133"/>
+      <c r="H337" s="133"/>
+      <c r="I337" s="133"/>
       <c r="J337" s="19"/>
       <c r="K337" s="19"/>
       <c r="L337" s="24"/>
@@ -23397,8 +23397,8 @@
       <c r="G343" s="15"/>
       <c r="H343" s="15"/>
       <c r="I343" s="35" t="str">
-        <f>"Bình Dương, "&amp;IF($N$14=1,"Ngày 31 Tháng 03  ",IF($N$14=2,"Ngày 30 Tháng 06  ",IF($N$14=3,"Ngày 30 Tháng 09  ",IF($N$14=4,"Ngày 31 Tháng 12  "))))&amp;"Năm  "&amp;YEAR(F26)</f>
-        <v>Bình Dương, Ngày 30 Tháng 06  Năm  2016</v>
+        <f>"Bình Chánh, "&amp;IF($N$14=1,"Ngày  31  Tháng  03  ",IF($N$14=2,"Ngày  30  Tháng  06  ",IF($N$14=3," Ngày 30  Tháng  09  ",IF($N$14=4," Ngày  31  Tháng  12  "))))&amp;"Năm  "&amp;YEAR(F26)</f>
+        <v>Bình Chánh, Ngày  30  Tháng  06  Năm  2016</v>
       </c>
     </row>
     <row r="344" spans="2:12" x14ac:dyDescent="0.2">
@@ -23451,11 +23451,6 @@
   </sheetData>
   <autoFilter ref="A25:N333"/>
   <mergeCells count="17">
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="B16:I16"/>
     <mergeCell ref="B19:I19"/>
     <mergeCell ref="B22:I22"/>
     <mergeCell ref="B337:I337"/>
@@ -23468,10 +23463,15 @@
     <mergeCell ref="J12:J14"/>
     <mergeCell ref="K12:K14"/>
     <mergeCell ref="L12:L14"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="B16:I16"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N14">
-      <formula1>"1,2,3,4,5,6,7,8,9,10,11,12"</formula1>
+      <formula1>"1,2,3,4"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
@@ -23510,23 +23510,23 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="139" t="s">
+      <c r="B2" s="144" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="140"/>
-      <c r="N2" s="140"/>
-      <c r="O2" s="140"/>
-      <c r="P2" s="141"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="145"/>
+      <c r="N2" s="145"/>
+      <c r="O2" s="145"/>
+      <c r="P2" s="146"/>
       <c r="R2" s="11" t="s">
         <v>117</v>
       </c>
@@ -23535,23 +23535,23 @@
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="142" t="s">
+      <c r="B3" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143"/>
-      <c r="M3" s="143"/>
-      <c r="N3" s="143"/>
-      <c r="O3" s="143"/>
-      <c r="P3" s="144"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="148"/>
+      <c r="O3" s="148"/>
+      <c r="P3" s="149"/>
       <c r="R3" s="11" t="s">
         <v>125</v>
       </c>
@@ -23561,22 +23561,22 @@
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="93"/>
-      <c r="C4" s="136" t="s">
+      <c r="C4" s="140" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="136"/>
-      <c r="K4" s="136"/>
-      <c r="L4" s="136"/>
-      <c r="M4" s="136"/>
-      <c r="N4" s="136"/>
-      <c r="O4" s="136"/>
-      <c r="P4" s="145"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="140"/>
+      <c r="H4" s="140"/>
+      <c r="I4" s="140"/>
+      <c r="J4" s="140"/>
+      <c r="K4" s="140"/>
+      <c r="L4" s="140"/>
+      <c r="M4" s="140"/>
+      <c r="N4" s="140"/>
+      <c r="O4" s="140"/>
+      <c r="P4" s="141"/>
       <c r="R4" s="11" t="s">
         <v>123</v>
       </c>
@@ -23586,22 +23586,22 @@
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="93"/>
-      <c r="C5" s="136" t="s">
+      <c r="C5" s="140" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="136"/>
-      <c r="K5" s="136"/>
-      <c r="L5" s="136"/>
-      <c r="M5" s="136"/>
-      <c r="N5" s="136"/>
-      <c r="O5" s="136"/>
-      <c r="P5" s="145"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="140"/>
+      <c r="K5" s="140"/>
+      <c r="L5" s="140"/>
+      <c r="M5" s="140"/>
+      <c r="N5" s="140"/>
+      <c r="O5" s="140"/>
+      <c r="P5" s="141"/>
       <c r="R5" s="11" t="s">
         <v>124</v>
       </c>
@@ -23612,21 +23612,21 @@
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="93"/>
       <c r="C6" s="94"/>
-      <c r="D6" s="136" t="s">
+      <c r="D6" s="140" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="137"/>
-      <c r="F6" s="137"/>
-      <c r="G6" s="137"/>
-      <c r="H6" s="137"/>
-      <c r="I6" s="137"/>
-      <c r="J6" s="137"/>
-      <c r="K6" s="137"/>
-      <c r="L6" s="137"/>
-      <c r="M6" s="137"/>
-      <c r="N6" s="137"/>
-      <c r="O6" s="137"/>
-      <c r="P6" s="138"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="136"/>
+      <c r="K6" s="136"/>
+      <c r="L6" s="136"/>
+      <c r="M6" s="136"/>
+      <c r="N6" s="136"/>
+      <c r="O6" s="136"/>
+      <c r="P6" s="137"/>
       <c r="R6" s="11" t="s">
         <v>132</v>
       </c>
@@ -23637,21 +23637,21 @@
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="93"/>
       <c r="C7" s="94"/>
-      <c r="D7" s="136" t="s">
+      <c r="D7" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="137"/>
-      <c r="H7" s="137"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="137"/>
-      <c r="K7" s="137"/>
-      <c r="L7" s="137"/>
-      <c r="M7" s="137"/>
-      <c r="N7" s="137"/>
-      <c r="O7" s="137"/>
-      <c r="P7" s="138"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="136"/>
+      <c r="L7" s="136"/>
+      <c r="M7" s="136"/>
+      <c r="N7" s="136"/>
+      <c r="O7" s="136"/>
+      <c r="P7" s="137"/>
       <c r="R7" s="11" t="s">
         <v>118</v>
       </c>
@@ -23662,21 +23662,21 @@
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="93"/>
       <c r="C8" s="94"/>
-      <c r="D8" s="136" t="s">
+      <c r="D8" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="137"/>
-      <c r="F8" s="137"/>
-      <c r="G8" s="137"/>
-      <c r="H8" s="137"/>
-      <c r="I8" s="137"/>
-      <c r="J8" s="137"/>
-      <c r="K8" s="137"/>
-      <c r="L8" s="137"/>
-      <c r="M8" s="137"/>
-      <c r="N8" s="137"/>
-      <c r="O8" s="137"/>
-      <c r="P8" s="138"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="136"/>
+      <c r="J8" s="136"/>
+      <c r="K8" s="136"/>
+      <c r="L8" s="136"/>
+      <c r="M8" s="136"/>
+      <c r="N8" s="136"/>
+      <c r="O8" s="136"/>
+      <c r="P8" s="137"/>
       <c r="R8" s="11" t="s">
         <v>142</v>
       </c>
@@ -23687,21 +23687,21 @@
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="93"/>
       <c r="C9" s="94"/>
-      <c r="D9" s="136" t="s">
+      <c r="D9" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="137"/>
-      <c r="F9" s="137"/>
-      <c r="G9" s="137"/>
-      <c r="H9" s="137"/>
-      <c r="I9" s="137"/>
-      <c r="J9" s="137"/>
-      <c r="K9" s="137"/>
-      <c r="L9" s="137"/>
-      <c r="M9" s="137"/>
-      <c r="N9" s="137"/>
-      <c r="O9" s="137"/>
-      <c r="P9" s="138"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="136"/>
+      <c r="I9" s="136"/>
+      <c r="J9" s="136"/>
+      <c r="K9" s="136"/>
+      <c r="L9" s="136"/>
+      <c r="M9" s="136"/>
+      <c r="N9" s="136"/>
+      <c r="O9" s="136"/>
+      <c r="P9" s="137"/>
       <c r="R9" s="11" t="s">
         <v>144</v>
       </c>
@@ -23712,21 +23712,21 @@
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="93"/>
       <c r="C10" s="94"/>
-      <c r="D10" s="136" t="s">
+      <c r="D10" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="137"/>
-      <c r="F10" s="137"/>
-      <c r="G10" s="137"/>
-      <c r="H10" s="137"/>
-      <c r="I10" s="137"/>
-      <c r="J10" s="137"/>
-      <c r="K10" s="137"/>
-      <c r="L10" s="137"/>
-      <c r="M10" s="137"/>
-      <c r="N10" s="137"/>
-      <c r="O10" s="137"/>
-      <c r="P10" s="138"/>
+      <c r="E10" s="136"/>
+      <c r="F10" s="136"/>
+      <c r="G10" s="136"/>
+      <c r="H10" s="136"/>
+      <c r="I10" s="136"/>
+      <c r="J10" s="136"/>
+      <c r="K10" s="136"/>
+      <c r="L10" s="136"/>
+      <c r="M10" s="136"/>
+      <c r="N10" s="136"/>
+      <c r="O10" s="136"/>
+      <c r="P10" s="137"/>
       <c r="R10" s="11" t="s">
         <v>129</v>
       </c>
@@ -23736,22 +23736,22 @@
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" s="93"/>
-      <c r="C11" s="136" t="s">
+      <c r="C11" s="140" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="136"/>
-      <c r="E11" s="136"/>
-      <c r="F11" s="136"/>
-      <c r="G11" s="136"/>
-      <c r="H11" s="136"/>
-      <c r="I11" s="136"/>
-      <c r="J11" s="136"/>
-      <c r="K11" s="136"/>
-      <c r="L11" s="136"/>
-      <c r="M11" s="136"/>
-      <c r="N11" s="136"/>
-      <c r="O11" s="136"/>
-      <c r="P11" s="145"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="140"/>
+      <c r="F11" s="140"/>
+      <c r="G11" s="140"/>
+      <c r="H11" s="140"/>
+      <c r="I11" s="140"/>
+      <c r="J11" s="140"/>
+      <c r="K11" s="140"/>
+      <c r="L11" s="140"/>
+      <c r="M11" s="140"/>
+      <c r="N11" s="140"/>
+      <c r="O11" s="140"/>
+      <c r="P11" s="141"/>
       <c r="R11" s="11" t="s">
         <v>120</v>
       </c>
@@ -23761,22 +23761,22 @@
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="93"/>
-      <c r="C12" s="136" t="s">
+      <c r="C12" s="140" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="136"/>
-      <c r="E12" s="136"/>
-      <c r="F12" s="136"/>
-      <c r="G12" s="136"/>
-      <c r="H12" s="136"/>
-      <c r="I12" s="136"/>
-      <c r="J12" s="136"/>
-      <c r="K12" s="136"/>
-      <c r="L12" s="136"/>
-      <c r="M12" s="136"/>
-      <c r="N12" s="136"/>
-      <c r="O12" s="136"/>
-      <c r="P12" s="145"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="140"/>
+      <c r="F12" s="140"/>
+      <c r="G12" s="140"/>
+      <c r="H12" s="140"/>
+      <c r="I12" s="140"/>
+      <c r="J12" s="140"/>
+      <c r="K12" s="140"/>
+      <c r="L12" s="140"/>
+      <c r="M12" s="140"/>
+      <c r="N12" s="140"/>
+      <c r="O12" s="140"/>
+      <c r="P12" s="141"/>
       <c r="R12" s="11" t="s">
         <v>148</v>
       </c>
@@ -23808,23 +23808,23 @@
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="142" t="s">
+      <c r="B14" s="147" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="143"/>
-      <c r="D14" s="143"/>
-      <c r="E14" s="143"/>
-      <c r="F14" s="143"/>
-      <c r="G14" s="143"/>
-      <c r="H14" s="143"/>
-      <c r="I14" s="143"/>
-      <c r="J14" s="143"/>
-      <c r="K14" s="143"/>
-      <c r="L14" s="143"/>
-      <c r="M14" s="143"/>
-      <c r="N14" s="143"/>
-      <c r="O14" s="143"/>
-      <c r="P14" s="144"/>
+      <c r="C14" s="148"/>
+      <c r="D14" s="148"/>
+      <c r="E14" s="148"/>
+      <c r="F14" s="148"/>
+      <c r="G14" s="148"/>
+      <c r="H14" s="148"/>
+      <c r="I14" s="148"/>
+      <c r="J14" s="148"/>
+      <c r="K14" s="148"/>
+      <c r="L14" s="148"/>
+      <c r="M14" s="148"/>
+      <c r="N14" s="148"/>
+      <c r="O14" s="148"/>
+      <c r="P14" s="149"/>
       <c r="R14" s="11" t="s">
         <v>151</v>
       </c>
@@ -23834,22 +23834,22 @@
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" s="93"/>
-      <c r="C15" s="136" t="s">
+      <c r="C15" s="140" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="136"/>
-      <c r="E15" s="136"/>
-      <c r="F15" s="136"/>
-      <c r="G15" s="136"/>
-      <c r="H15" s="136"/>
-      <c r="I15" s="136"/>
-      <c r="J15" s="136"/>
-      <c r="K15" s="136"/>
-      <c r="L15" s="136"/>
-      <c r="M15" s="136"/>
-      <c r="N15" s="136"/>
-      <c r="O15" s="136"/>
-      <c r="P15" s="145"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="140"/>
+      <c r="I15" s="140"/>
+      <c r="J15" s="140"/>
+      <c r="K15" s="140"/>
+      <c r="L15" s="140"/>
+      <c r="M15" s="140"/>
+      <c r="N15" s="140"/>
+      <c r="O15" s="140"/>
+      <c r="P15" s="141"/>
       <c r="R15" s="11" t="s">
         <v>153</v>
       </c>
@@ -23860,21 +23860,21 @@
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="93"/>
       <c r="C16" s="96"/>
-      <c r="D16" s="137" t="s">
+      <c r="D16" s="136" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="137"/>
-      <c r="F16" s="137"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="137"/>
-      <c r="I16" s="137"/>
-      <c r="J16" s="137"/>
-      <c r="K16" s="137"/>
-      <c r="L16" s="137"/>
-      <c r="M16" s="137"/>
-      <c r="N16" s="137"/>
-      <c r="O16" s="137"/>
-      <c r="P16" s="138"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="136"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="136"/>
+      <c r="I16" s="136"/>
+      <c r="J16" s="136"/>
+      <c r="K16" s="136"/>
+      <c r="L16" s="136"/>
+      <c r="M16" s="136"/>
+      <c r="N16" s="136"/>
+      <c r="O16" s="136"/>
+      <c r="P16" s="137"/>
       <c r="R16" s="11" t="s">
         <v>128</v>
       </c>
@@ -23910,21 +23910,21 @@
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="93"/>
       <c r="C18" s="94"/>
-      <c r="D18" s="137" t="s">
+      <c r="D18" s="136" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="137"/>
-      <c r="F18" s="137"/>
-      <c r="G18" s="137"/>
-      <c r="H18" s="137"/>
-      <c r="I18" s="137"/>
-      <c r="J18" s="137"/>
-      <c r="K18" s="137"/>
-      <c r="L18" s="137"/>
-      <c r="M18" s="137"/>
-      <c r="N18" s="137"/>
-      <c r="O18" s="137"/>
-      <c r="P18" s="138"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="136"/>
+      <c r="G18" s="136"/>
+      <c r="H18" s="136"/>
+      <c r="I18" s="136"/>
+      <c r="J18" s="136"/>
+      <c r="K18" s="136"/>
+      <c r="L18" s="136"/>
+      <c r="M18" s="136"/>
+      <c r="N18" s="136"/>
+      <c r="O18" s="136"/>
+      <c r="P18" s="137"/>
       <c r="R18" s="11" t="s">
         <v>127</v>
       </c>
@@ -23935,21 +23935,21 @@
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="93"/>
       <c r="C19" s="94"/>
-      <c r="D19" s="137" t="s">
+      <c r="D19" s="136" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="137"/>
-      <c r="F19" s="137"/>
-      <c r="G19" s="137"/>
-      <c r="H19" s="137"/>
-      <c r="I19" s="137"/>
-      <c r="J19" s="137"/>
-      <c r="K19" s="137"/>
-      <c r="L19" s="137"/>
-      <c r="M19" s="137"/>
-      <c r="N19" s="137"/>
-      <c r="O19" s="137"/>
-      <c r="P19" s="138"/>
+      <c r="E19" s="136"/>
+      <c r="F19" s="136"/>
+      <c r="G19" s="136"/>
+      <c r="H19" s="136"/>
+      <c r="I19" s="136"/>
+      <c r="J19" s="136"/>
+      <c r="K19" s="136"/>
+      <c r="L19" s="136"/>
+      <c r="M19" s="136"/>
+      <c r="N19" s="136"/>
+      <c r="O19" s="136"/>
+      <c r="P19" s="137"/>
       <c r="R19" s="11" t="s">
         <v>126</v>
       </c>
@@ -23960,21 +23960,21 @@
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="93"/>
       <c r="C20" s="94"/>
-      <c r="D20" s="137" t="s">
+      <c r="D20" s="136" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="137"/>
-      <c r="F20" s="137"/>
-      <c r="G20" s="137"/>
-      <c r="H20" s="137"/>
-      <c r="I20" s="137"/>
-      <c r="J20" s="137"/>
-      <c r="K20" s="137"/>
-      <c r="L20" s="137"/>
-      <c r="M20" s="137"/>
-      <c r="N20" s="137"/>
-      <c r="O20" s="137"/>
-      <c r="P20" s="138"/>
+      <c r="E20" s="136"/>
+      <c r="F20" s="136"/>
+      <c r="G20" s="136"/>
+      <c r="H20" s="136"/>
+      <c r="I20" s="136"/>
+      <c r="J20" s="136"/>
+      <c r="K20" s="136"/>
+      <c r="L20" s="136"/>
+      <c r="M20" s="136"/>
+      <c r="N20" s="136"/>
+      <c r="O20" s="136"/>
+      <c r="P20" s="137"/>
       <c r="R20" s="11" t="s">
         <v>119</v>
       </c>
@@ -23985,21 +23985,21 @@
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="93"/>
       <c r="C21" s="94"/>
-      <c r="D21" s="137" t="s">
+      <c r="D21" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="137"/>
-      <c r="F21" s="137"/>
-      <c r="G21" s="137"/>
-      <c r="H21" s="137"/>
-      <c r="I21" s="137"/>
-      <c r="J21" s="137"/>
-      <c r="K21" s="137"/>
-      <c r="L21" s="137"/>
-      <c r="M21" s="137"/>
-      <c r="N21" s="137"/>
-      <c r="O21" s="137"/>
-      <c r="P21" s="138"/>
+      <c r="E21" s="136"/>
+      <c r="F21" s="136"/>
+      <c r="G21" s="136"/>
+      <c r="H21" s="136"/>
+      <c r="I21" s="136"/>
+      <c r="J21" s="136"/>
+      <c r="K21" s="136"/>
+      <c r="L21" s="136"/>
+      <c r="M21" s="136"/>
+      <c r="N21" s="136"/>
+      <c r="O21" s="136"/>
+      <c r="P21" s="137"/>
       <c r="R21" s="11" t="s">
         <v>116</v>
       </c>
@@ -24010,21 +24010,21 @@
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="93"/>
       <c r="C22" s="94"/>
-      <c r="D22" s="137" t="s">
+      <c r="D22" s="136" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="137"/>
-      <c r="F22" s="137"/>
-      <c r="G22" s="137"/>
-      <c r="H22" s="137"/>
-      <c r="I22" s="137"/>
-      <c r="J22" s="137"/>
-      <c r="K22" s="137"/>
-      <c r="L22" s="137"/>
-      <c r="M22" s="137"/>
-      <c r="N22" s="137"/>
-      <c r="O22" s="137"/>
-      <c r="P22" s="138"/>
+      <c r="E22" s="136"/>
+      <c r="F22" s="136"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="136"/>
+      <c r="I22" s="136"/>
+      <c r="J22" s="136"/>
+      <c r="K22" s="136"/>
+      <c r="L22" s="136"/>
+      <c r="M22" s="136"/>
+      <c r="N22" s="136"/>
+      <c r="O22" s="136"/>
+      <c r="P22" s="137"/>
       <c r="R22" s="11" t="s">
         <v>162</v>
       </c>
@@ -24035,21 +24035,21 @@
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="93"/>
       <c r="C23" s="94"/>
-      <c r="D23" s="137" t="s">
+      <c r="D23" s="136" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="137"/>
-      <c r="F23" s="137"/>
-      <c r="G23" s="137"/>
-      <c r="H23" s="137"/>
-      <c r="I23" s="137"/>
-      <c r="J23" s="137"/>
-      <c r="K23" s="137"/>
-      <c r="L23" s="137"/>
-      <c r="M23" s="137"/>
-      <c r="N23" s="137"/>
-      <c r="O23" s="137"/>
-      <c r="P23" s="138"/>
+      <c r="E23" s="136"/>
+      <c r="F23" s="136"/>
+      <c r="G23" s="136"/>
+      <c r="H23" s="136"/>
+      <c r="I23" s="136"/>
+      <c r="J23" s="136"/>
+      <c r="K23" s="136"/>
+      <c r="L23" s="136"/>
+      <c r="M23" s="136"/>
+      <c r="N23" s="136"/>
+      <c r="O23" s="136"/>
+      <c r="P23" s="137"/>
       <c r="R23" s="11" t="s">
         <v>164</v>
       </c>
@@ -24060,21 +24060,21 @@
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="93"/>
       <c r="C24" s="94"/>
-      <c r="D24" s="137" t="s">
+      <c r="D24" s="136" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="137"/>
-      <c r="F24" s="137"/>
-      <c r="G24" s="137"/>
-      <c r="H24" s="137"/>
-      <c r="I24" s="137"/>
-      <c r="J24" s="137"/>
-      <c r="K24" s="137"/>
-      <c r="L24" s="137"/>
-      <c r="M24" s="137"/>
-      <c r="N24" s="137"/>
-      <c r="O24" s="137"/>
-      <c r="P24" s="138"/>
+      <c r="E24" s="136"/>
+      <c r="F24" s="136"/>
+      <c r="G24" s="136"/>
+      <c r="H24" s="136"/>
+      <c r="I24" s="136"/>
+      <c r="J24" s="136"/>
+      <c r="K24" s="136"/>
+      <c r="L24" s="136"/>
+      <c r="M24" s="136"/>
+      <c r="N24" s="136"/>
+      <c r="O24" s="136"/>
+      <c r="P24" s="137"/>
       <c r="R24" s="11" t="s">
         <v>133</v>
       </c>
@@ -24085,21 +24085,21 @@
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="93"/>
       <c r="C25" s="94"/>
-      <c r="D25" s="137" t="s">
+      <c r="D25" s="136" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="137"/>
-      <c r="F25" s="137"/>
-      <c r="G25" s="137"/>
-      <c r="H25" s="137"/>
-      <c r="I25" s="137"/>
-      <c r="J25" s="137"/>
-      <c r="K25" s="137"/>
-      <c r="L25" s="137"/>
-      <c r="M25" s="137"/>
-      <c r="N25" s="137"/>
-      <c r="O25" s="137"/>
-      <c r="P25" s="138"/>
+      <c r="E25" s="136"/>
+      <c r="F25" s="136"/>
+      <c r="G25" s="136"/>
+      <c r="H25" s="136"/>
+      <c r="I25" s="136"/>
+      <c r="J25" s="136"/>
+      <c r="K25" s="136"/>
+      <c r="L25" s="136"/>
+      <c r="M25" s="136"/>
+      <c r="N25" s="136"/>
+      <c r="O25" s="136"/>
+      <c r="P25" s="137"/>
       <c r="R25" s="11" t="s">
         <v>167</v>
       </c>
@@ -24110,21 +24110,21 @@
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="93"/>
       <c r="C26" s="94"/>
-      <c r="D26" s="137" t="s">
+      <c r="D26" s="136" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="137"/>
-      <c r="F26" s="137"/>
-      <c r="G26" s="137"/>
-      <c r="H26" s="137"/>
-      <c r="I26" s="137"/>
-      <c r="J26" s="137"/>
-      <c r="K26" s="137"/>
-      <c r="L26" s="137"/>
-      <c r="M26" s="137"/>
-      <c r="N26" s="137"/>
-      <c r="O26" s="137"/>
-      <c r="P26" s="138"/>
+      <c r="E26" s="136"/>
+      <c r="F26" s="136"/>
+      <c r="G26" s="136"/>
+      <c r="H26" s="136"/>
+      <c r="I26" s="136"/>
+      <c r="J26" s="136"/>
+      <c r="K26" s="136"/>
+      <c r="L26" s="136"/>
+      <c r="M26" s="136"/>
+      <c r="N26" s="136"/>
+      <c r="O26" s="136"/>
+      <c r="P26" s="137"/>
       <c r="R26" s="11" t="s">
         <v>169</v>
       </c>
@@ -24157,22 +24157,22 @@
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="93"/>
-      <c r="C28" s="136" t="s">
+      <c r="C28" s="140" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="136"/>
-      <c r="E28" s="136"/>
-      <c r="F28" s="136"/>
-      <c r="G28" s="136"/>
-      <c r="H28" s="136"/>
-      <c r="I28" s="136"/>
-      <c r="J28" s="136"/>
-      <c r="K28" s="136"/>
-      <c r="L28" s="136"/>
-      <c r="M28" s="136"/>
-      <c r="N28" s="136"/>
-      <c r="O28" s="136"/>
-      <c r="P28" s="145"/>
+      <c r="D28" s="140"/>
+      <c r="E28" s="140"/>
+      <c r="F28" s="140"/>
+      <c r="G28" s="140"/>
+      <c r="H28" s="140"/>
+      <c r="I28" s="140"/>
+      <c r="J28" s="140"/>
+      <c r="K28" s="140"/>
+      <c r="L28" s="140"/>
+      <c r="M28" s="140"/>
+      <c r="N28" s="140"/>
+      <c r="O28" s="140"/>
+      <c r="P28" s="141"/>
       <c r="R28" s="11" t="s">
         <v>130</v>
       </c>
@@ -24183,21 +24183,21 @@
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="93"/>
       <c r="C29" s="94"/>
-      <c r="D29" s="137" t="s">
+      <c r="D29" s="136" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="137"/>
-      <c r="F29" s="137"/>
-      <c r="G29" s="137"/>
-      <c r="H29" s="137"/>
-      <c r="I29" s="137"/>
-      <c r="J29" s="137"/>
-      <c r="K29" s="137"/>
-      <c r="L29" s="137"/>
-      <c r="M29" s="137"/>
-      <c r="N29" s="137"/>
-      <c r="O29" s="137"/>
-      <c r="P29" s="138"/>
+      <c r="E29" s="136"/>
+      <c r="F29" s="136"/>
+      <c r="G29" s="136"/>
+      <c r="H29" s="136"/>
+      <c r="I29" s="136"/>
+      <c r="J29" s="136"/>
+      <c r="K29" s="136"/>
+      <c r="L29" s="136"/>
+      <c r="M29" s="136"/>
+      <c r="N29" s="136"/>
+      <c r="O29" s="136"/>
+      <c r="P29" s="137"/>
       <c r="R29" s="11" t="s">
         <v>174</v>
       </c>
@@ -24208,21 +24208,21 @@
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" s="93"/>
       <c r="C30" s="94"/>
-      <c r="D30" s="137" t="s">
+      <c r="D30" s="136" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="137"/>
-      <c r="F30" s="137"/>
-      <c r="G30" s="137"/>
-      <c r="H30" s="137"/>
-      <c r="I30" s="137"/>
-      <c r="J30" s="137"/>
-      <c r="K30" s="137"/>
-      <c r="L30" s="137"/>
-      <c r="M30" s="137"/>
-      <c r="N30" s="137"/>
-      <c r="O30" s="137"/>
-      <c r="P30" s="138"/>
+      <c r="E30" s="136"/>
+      <c r="F30" s="136"/>
+      <c r="G30" s="136"/>
+      <c r="H30" s="136"/>
+      <c r="I30" s="136"/>
+      <c r="J30" s="136"/>
+      <c r="K30" s="136"/>
+      <c r="L30" s="136"/>
+      <c r="M30" s="136"/>
+      <c r="N30" s="136"/>
+      <c r="O30" s="136"/>
+      <c r="P30" s="137"/>
       <c r="R30" s="11" t="s">
         <v>176</v>
       </c>
@@ -24233,21 +24233,21 @@
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" s="93"/>
       <c r="C31" s="94"/>
-      <c r="D31" s="137" t="s">
+      <c r="D31" s="136" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="137"/>
-      <c r="F31" s="137"/>
-      <c r="G31" s="137"/>
-      <c r="H31" s="137"/>
-      <c r="I31" s="137"/>
-      <c r="J31" s="137"/>
-      <c r="K31" s="137"/>
-      <c r="L31" s="137"/>
-      <c r="M31" s="137"/>
-      <c r="N31" s="137"/>
-      <c r="O31" s="137"/>
-      <c r="P31" s="138"/>
+      <c r="E31" s="136"/>
+      <c r="F31" s="136"/>
+      <c r="G31" s="136"/>
+      <c r="H31" s="136"/>
+      <c r="I31" s="136"/>
+      <c r="J31" s="136"/>
+      <c r="K31" s="136"/>
+      <c r="L31" s="136"/>
+      <c r="M31" s="136"/>
+      <c r="N31" s="136"/>
+      <c r="O31" s="136"/>
+      <c r="P31" s="137"/>
       <c r="R31" s="11" t="s">
         <v>178</v>
       </c>
@@ -24258,21 +24258,21 @@
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" s="93"/>
       <c r="C32" s="94"/>
-      <c r="D32" s="137" t="s">
+      <c r="D32" s="136" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="137"/>
-      <c r="F32" s="137"/>
-      <c r="G32" s="137"/>
-      <c r="H32" s="137"/>
-      <c r="I32" s="137"/>
-      <c r="J32" s="137"/>
-      <c r="K32" s="137"/>
-      <c r="L32" s="137"/>
-      <c r="M32" s="137"/>
-      <c r="N32" s="137"/>
-      <c r="O32" s="137"/>
-      <c r="P32" s="138"/>
+      <c r="E32" s="136"/>
+      <c r="F32" s="136"/>
+      <c r="G32" s="136"/>
+      <c r="H32" s="136"/>
+      <c r="I32" s="136"/>
+      <c r="J32" s="136"/>
+      <c r="K32" s="136"/>
+      <c r="L32" s="136"/>
+      <c r="M32" s="136"/>
+      <c r="N32" s="136"/>
+      <c r="O32" s="136"/>
+      <c r="P32" s="137"/>
       <c r="R32" s="11" t="s">
         <v>180</v>
       </c>
@@ -24283,21 +24283,21 @@
     <row r="33" spans="2:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="93"/>
       <c r="C33" s="94"/>
-      <c r="D33" s="148" t="s">
+      <c r="D33" s="142" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="148"/>
-      <c r="F33" s="148"/>
-      <c r="G33" s="148"/>
-      <c r="H33" s="148"/>
-      <c r="I33" s="148"/>
-      <c r="J33" s="148"/>
-      <c r="K33" s="148"/>
-      <c r="L33" s="148"/>
-      <c r="M33" s="148"/>
-      <c r="N33" s="148"/>
-      <c r="O33" s="148"/>
-      <c r="P33" s="149"/>
+      <c r="E33" s="142"/>
+      <c r="F33" s="142"/>
+      <c r="G33" s="142"/>
+      <c r="H33" s="142"/>
+      <c r="I33" s="142"/>
+      <c r="J33" s="142"/>
+      <c r="K33" s="142"/>
+      <c r="L33" s="142"/>
+      <c r="M33" s="142"/>
+      <c r="N33" s="142"/>
+      <c r="O33" s="142"/>
+      <c r="P33" s="143"/>
       <c r="R33" s="11" t="s">
         <v>122</v>
       </c>
@@ -24308,21 +24308,21 @@
     <row r="34" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="99"/>
       <c r="C34" s="100"/>
-      <c r="D34" s="146" t="s">
+      <c r="D34" s="138" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="146"/>
-      <c r="F34" s="146"/>
-      <c r="G34" s="146"/>
-      <c r="H34" s="146"/>
-      <c r="I34" s="146"/>
-      <c r="J34" s="146"/>
-      <c r="K34" s="146"/>
-      <c r="L34" s="146"/>
-      <c r="M34" s="146"/>
-      <c r="N34" s="146"/>
-      <c r="O34" s="146"/>
-      <c r="P34" s="147"/>
+      <c r="E34" s="138"/>
+      <c r="F34" s="138"/>
+      <c r="G34" s="138"/>
+      <c r="H34" s="138"/>
+      <c r="I34" s="138"/>
+      <c r="J34" s="138"/>
+      <c r="K34" s="138"/>
+      <c r="L34" s="138"/>
+      <c r="M34" s="138"/>
+      <c r="N34" s="138"/>
+      <c r="O34" s="138"/>
+      <c r="P34" s="139"/>
       <c r="R34" s="11" t="s">
         <v>396</v>
       </c>
@@ -25027,22 +25027,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D25:P25"/>
-    <mergeCell ref="D24:P24"/>
-    <mergeCell ref="D18:P18"/>
-    <mergeCell ref="D19:P19"/>
-    <mergeCell ref="D20:P20"/>
-    <mergeCell ref="D21:P21"/>
-    <mergeCell ref="D23:P23"/>
-    <mergeCell ref="D22:P22"/>
-    <mergeCell ref="D34:P34"/>
-    <mergeCell ref="D31:P31"/>
-    <mergeCell ref="D26:P26"/>
-    <mergeCell ref="C28:P28"/>
-    <mergeCell ref="D30:P30"/>
-    <mergeCell ref="D29:P29"/>
-    <mergeCell ref="D32:P32"/>
-    <mergeCell ref="D33:P33"/>
     <mergeCell ref="D10:P10"/>
     <mergeCell ref="D16:P16"/>
     <mergeCell ref="B2:P2"/>
@@ -25057,6 +25041,22 @@
     <mergeCell ref="D7:P7"/>
     <mergeCell ref="D8:P8"/>
     <mergeCell ref="D9:P9"/>
+    <mergeCell ref="D34:P34"/>
+    <mergeCell ref="D31:P31"/>
+    <mergeCell ref="D26:P26"/>
+    <mergeCell ref="C28:P28"/>
+    <mergeCell ref="D30:P30"/>
+    <mergeCell ref="D29:P29"/>
+    <mergeCell ref="D32:P32"/>
+    <mergeCell ref="D33:P33"/>
+    <mergeCell ref="D25:P25"/>
+    <mergeCell ref="D24:P24"/>
+    <mergeCell ref="D18:P18"/>
+    <mergeCell ref="D19:P19"/>
+    <mergeCell ref="D20:P20"/>
+    <mergeCell ref="D21:P21"/>
+    <mergeCell ref="D23:P23"/>
+    <mergeCell ref="D22:P22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -25091,23 +25091,23 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="161" t="s">
+      <c r="B2" s="153" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="162"/>
-      <c r="O2" s="162"/>
-      <c r="P2" s="163"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="154"/>
+      <c r="O2" s="154"/>
+      <c r="P2" s="155"/>
       <c r="R2" s="11" t="s">
         <v>95</v>
       </c>
@@ -25117,23 +25117,23 @@
       <c r="T2" s="57"/>
     </row>
     <row r="3" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="158" t="s">
+      <c r="B3" s="150" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
-      <c r="I3" s="159"/>
-      <c r="J3" s="159"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="159"/>
-      <c r="M3" s="159"/>
-      <c r="N3" s="159"/>
-      <c r="O3" s="159"/>
-      <c r="P3" s="160"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="151"/>
+      <c r="L3" s="151"/>
+      <c r="M3" s="151"/>
+      <c r="N3" s="151"/>
+      <c r="O3" s="151"/>
+      <c r="P3" s="152"/>
       <c r="R3" s="11" t="s">
         <v>97</v>
       </c>
@@ -25144,22 +25144,22 @@
     </row>
     <row r="4" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="103"/>
-      <c r="C4" s="154" t="s">
+      <c r="C4" s="156" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="154"/>
-      <c r="E4" s="154"/>
-      <c r="F4" s="154"/>
-      <c r="G4" s="154"/>
-      <c r="H4" s="154"/>
-      <c r="I4" s="154"/>
-      <c r="J4" s="154"/>
-      <c r="K4" s="154"/>
-      <c r="L4" s="154"/>
-      <c r="M4" s="154"/>
-      <c r="N4" s="154"/>
-      <c r="O4" s="154"/>
-      <c r="P4" s="155"/>
+      <c r="D4" s="156"/>
+      <c r="E4" s="156"/>
+      <c r="F4" s="156"/>
+      <c r="G4" s="156"/>
+      <c r="H4" s="156"/>
+      <c r="I4" s="156"/>
+      <c r="J4" s="156"/>
+      <c r="K4" s="156"/>
+      <c r="L4" s="156"/>
+      <c r="M4" s="156"/>
+      <c r="N4" s="156"/>
+      <c r="O4" s="156"/>
+      <c r="P4" s="157"/>
       <c r="R4" s="11" t="s">
         <v>99</v>
       </c>
@@ -25170,22 +25170,22 @@
     </row>
     <row r="5" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="103"/>
-      <c r="C5" s="154" t="s">
+      <c r="C5" s="156" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="154"/>
-      <c r="E5" s="154"/>
-      <c r="F5" s="154"/>
-      <c r="G5" s="154"/>
-      <c r="H5" s="154"/>
-      <c r="I5" s="154"/>
-      <c r="J5" s="154"/>
-      <c r="K5" s="154"/>
-      <c r="L5" s="154"/>
-      <c r="M5" s="154"/>
-      <c r="N5" s="154"/>
-      <c r="O5" s="154"/>
-      <c r="P5" s="155"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="156"/>
+      <c r="F5" s="156"/>
+      <c r="G5" s="156"/>
+      <c r="H5" s="156"/>
+      <c r="I5" s="156"/>
+      <c r="J5" s="156"/>
+      <c r="K5" s="156"/>
+      <c r="L5" s="156"/>
+      <c r="M5" s="156"/>
+      <c r="N5" s="156"/>
+      <c r="O5" s="156"/>
+      <c r="P5" s="157"/>
       <c r="R5" s="11" t="s">
         <v>91</v>
       </c>
@@ -25197,21 +25197,21 @@
     <row r="6" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="103"/>
       <c r="C6" s="104"/>
-      <c r="D6" s="156" t="s">
+      <c r="D6" s="158" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="156"/>
-      <c r="F6" s="156"/>
-      <c r="G6" s="156"/>
-      <c r="H6" s="156"/>
-      <c r="I6" s="156"/>
-      <c r="J6" s="156"/>
-      <c r="K6" s="156"/>
-      <c r="L6" s="156"/>
-      <c r="M6" s="156"/>
-      <c r="N6" s="156"/>
-      <c r="O6" s="156"/>
-      <c r="P6" s="157"/>
+      <c r="E6" s="158"/>
+      <c r="F6" s="158"/>
+      <c r="G6" s="158"/>
+      <c r="H6" s="158"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="158"/>
+      <c r="K6" s="158"/>
+      <c r="L6" s="158"/>
+      <c r="M6" s="158"/>
+      <c r="N6" s="158"/>
+      <c r="O6" s="158"/>
+      <c r="P6" s="159"/>
       <c r="R6" s="11" t="s">
         <v>102</v>
       </c>
@@ -25223,21 +25223,21 @@
     <row r="7" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="103"/>
       <c r="C7" s="104"/>
-      <c r="D7" s="154" t="s">
+      <c r="D7" s="156" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="156"/>
-      <c r="F7" s="156"/>
-      <c r="G7" s="156"/>
-      <c r="H7" s="156"/>
-      <c r="I7" s="156"/>
-      <c r="J7" s="156"/>
-      <c r="K7" s="156"/>
-      <c r="L7" s="156"/>
-      <c r="M7" s="156"/>
-      <c r="N7" s="156"/>
-      <c r="O7" s="156"/>
-      <c r="P7" s="157"/>
+      <c r="E7" s="158"/>
+      <c r="F7" s="158"/>
+      <c r="G7" s="158"/>
+      <c r="H7" s="158"/>
+      <c r="I7" s="158"/>
+      <c r="J7" s="158"/>
+      <c r="K7" s="158"/>
+      <c r="L7" s="158"/>
+      <c r="M7" s="158"/>
+      <c r="N7" s="158"/>
+      <c r="O7" s="158"/>
+      <c r="P7" s="159"/>
       <c r="R7" s="11" t="s">
         <v>104</v>
       </c>
@@ -25249,21 +25249,21 @@
     <row r="8" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="103"/>
       <c r="C8" s="104"/>
-      <c r="D8" s="154" t="s">
+      <c r="D8" s="156" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="156"/>
-      <c r="F8" s="156"/>
-      <c r="G8" s="156"/>
-      <c r="H8" s="156"/>
-      <c r="I8" s="156"/>
-      <c r="J8" s="156"/>
-      <c r="K8" s="156"/>
-      <c r="L8" s="156"/>
-      <c r="M8" s="156"/>
-      <c r="N8" s="156"/>
-      <c r="O8" s="156"/>
-      <c r="P8" s="157"/>
+      <c r="E8" s="158"/>
+      <c r="F8" s="158"/>
+      <c r="G8" s="158"/>
+      <c r="H8" s="158"/>
+      <c r="I8" s="158"/>
+      <c r="J8" s="158"/>
+      <c r="K8" s="158"/>
+      <c r="L8" s="158"/>
+      <c r="M8" s="158"/>
+      <c r="N8" s="158"/>
+      <c r="O8" s="158"/>
+      <c r="P8" s="159"/>
       <c r="R8" s="11" t="s">
         <v>106</v>
       </c>
@@ -25275,21 +25275,21 @@
     <row r="9" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="103"/>
       <c r="C9" s="104"/>
-      <c r="D9" s="154" t="s">
+      <c r="D9" s="156" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="156"/>
-      <c r="F9" s="156"/>
-      <c r="G9" s="156"/>
-      <c r="H9" s="156"/>
-      <c r="I9" s="156"/>
-      <c r="J9" s="156"/>
-      <c r="K9" s="156"/>
-      <c r="L9" s="156"/>
-      <c r="M9" s="156"/>
-      <c r="N9" s="156"/>
-      <c r="O9" s="156"/>
-      <c r="P9" s="157"/>
+      <c r="E9" s="158"/>
+      <c r="F9" s="158"/>
+      <c r="G9" s="158"/>
+      <c r="H9" s="158"/>
+      <c r="I9" s="158"/>
+      <c r="J9" s="158"/>
+      <c r="K9" s="158"/>
+      <c r="L9" s="158"/>
+      <c r="M9" s="158"/>
+      <c r="N9" s="158"/>
+      <c r="O9" s="158"/>
+      <c r="P9" s="159"/>
       <c r="R9" s="60" t="s">
         <v>92</v>
       </c>
@@ -25301,21 +25301,21 @@
     <row r="10" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="103"/>
       <c r="C10" s="104"/>
-      <c r="D10" s="154" t="s">
+      <c r="D10" s="156" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="156"/>
-      <c r="F10" s="156"/>
-      <c r="G10" s="156"/>
-      <c r="H10" s="156"/>
-      <c r="I10" s="156"/>
-      <c r="J10" s="156"/>
-      <c r="K10" s="156"/>
-      <c r="L10" s="156"/>
-      <c r="M10" s="156"/>
-      <c r="N10" s="156"/>
-      <c r="O10" s="156"/>
-      <c r="P10" s="157"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="158"/>
+      <c r="G10" s="158"/>
+      <c r="H10" s="158"/>
+      <c r="I10" s="158"/>
+      <c r="J10" s="158"/>
+      <c r="K10" s="158"/>
+      <c r="L10" s="158"/>
+      <c r="M10" s="158"/>
+      <c r="N10" s="158"/>
+      <c r="O10" s="158"/>
+      <c r="P10" s="159"/>
       <c r="R10" s="11" t="s">
         <v>94</v>
       </c>
@@ -25326,22 +25326,22 @@
     </row>
     <row r="11" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="103"/>
-      <c r="C11" s="154" t="s">
+      <c r="C11" s="156" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="154"/>
-      <c r="E11" s="154"/>
-      <c r="F11" s="154"/>
-      <c r="G11" s="154"/>
-      <c r="H11" s="154"/>
-      <c r="I11" s="154"/>
-      <c r="J11" s="154"/>
-      <c r="K11" s="154"/>
-      <c r="L11" s="154"/>
-      <c r="M11" s="154"/>
-      <c r="N11" s="154"/>
-      <c r="O11" s="154"/>
-      <c r="P11" s="155"/>
+      <c r="D11" s="156"/>
+      <c r="E11" s="156"/>
+      <c r="F11" s="156"/>
+      <c r="G11" s="156"/>
+      <c r="H11" s="156"/>
+      <c r="I11" s="156"/>
+      <c r="J11" s="156"/>
+      <c r="K11" s="156"/>
+      <c r="L11" s="156"/>
+      <c r="M11" s="156"/>
+      <c r="N11" s="156"/>
+      <c r="O11" s="156"/>
+      <c r="P11" s="157"/>
       <c r="R11" s="11" t="s">
         <v>93</v>
       </c>
@@ -25352,22 +25352,22 @@
     </row>
     <row r="12" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="103"/>
-      <c r="C12" s="154" t="s">
+      <c r="C12" s="156" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="154"/>
-      <c r="E12" s="154"/>
-      <c r="F12" s="154"/>
-      <c r="G12" s="154"/>
-      <c r="H12" s="154"/>
-      <c r="I12" s="154"/>
-      <c r="J12" s="154"/>
-      <c r="K12" s="154"/>
-      <c r="L12" s="154"/>
-      <c r="M12" s="154"/>
-      <c r="N12" s="154"/>
-      <c r="O12" s="154"/>
-      <c r="P12" s="155"/>
+      <c r="D12" s="156"/>
+      <c r="E12" s="156"/>
+      <c r="F12" s="156"/>
+      <c r="G12" s="156"/>
+      <c r="H12" s="156"/>
+      <c r="I12" s="156"/>
+      <c r="J12" s="156"/>
+      <c r="K12" s="156"/>
+      <c r="L12" s="156"/>
+      <c r="M12" s="156"/>
+      <c r="N12" s="156"/>
+      <c r="O12" s="156"/>
+      <c r="P12" s="157"/>
       <c r="R12" s="60" t="s">
         <v>111</v>
       </c>
@@ -25401,23 +25401,23 @@
       <c r="T13" s="57"/>
     </row>
     <row r="14" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="158" t="s">
+      <c r="B14" s="150" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="159"/>
-      <c r="D14" s="159"/>
-      <c r="E14" s="159"/>
-      <c r="F14" s="159"/>
-      <c r="G14" s="159"/>
-      <c r="H14" s="159"/>
-      <c r="I14" s="159"/>
-      <c r="J14" s="159"/>
-      <c r="K14" s="159"/>
-      <c r="L14" s="159"/>
-      <c r="M14" s="159"/>
-      <c r="N14" s="159"/>
-      <c r="O14" s="159"/>
-      <c r="P14" s="160"/>
+      <c r="C14" s="151"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="151"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="151"/>
+      <c r="H14" s="151"/>
+      <c r="I14" s="151"/>
+      <c r="J14" s="151"/>
+      <c r="K14" s="151"/>
+      <c r="L14" s="151"/>
+      <c r="M14" s="151"/>
+      <c r="N14" s="151"/>
+      <c r="O14" s="151"/>
+      <c r="P14" s="152"/>
       <c r="R14" s="11" t="s">
         <v>114</v>
       </c>
@@ -25428,22 +25428,22 @@
     </row>
     <row r="15" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="103"/>
-      <c r="C15" s="154" t="s">
+      <c r="C15" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="154"/>
-      <c r="E15" s="154"/>
-      <c r="F15" s="154"/>
-      <c r="G15" s="154"/>
-      <c r="H15" s="154"/>
-      <c r="I15" s="154"/>
-      <c r="J15" s="154"/>
-      <c r="K15" s="154"/>
-      <c r="L15" s="154"/>
-      <c r="M15" s="154"/>
-      <c r="N15" s="154"/>
-      <c r="O15" s="154"/>
-      <c r="P15" s="155"/>
+      <c r="D15" s="156"/>
+      <c r="E15" s="156"/>
+      <c r="F15" s="156"/>
+      <c r="G15" s="156"/>
+      <c r="H15" s="156"/>
+      <c r="I15" s="156"/>
+      <c r="J15" s="156"/>
+      <c r="K15" s="156"/>
+      <c r="L15" s="156"/>
+      <c r="M15" s="156"/>
+      <c r="N15" s="156"/>
+      <c r="O15" s="156"/>
+      <c r="P15" s="157"/>
       <c r="R15" s="11" t="s">
         <v>618</v>
       </c>
@@ -25455,21 +25455,21 @@
     <row r="16" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="103"/>
       <c r="C16" s="106"/>
-      <c r="D16" s="156" t="s">
+      <c r="D16" s="158" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="156"/>
-      <c r="F16" s="156"/>
-      <c r="G16" s="156"/>
-      <c r="H16" s="156"/>
-      <c r="I16" s="156"/>
-      <c r="J16" s="156"/>
-      <c r="K16" s="156"/>
-      <c r="L16" s="156"/>
-      <c r="M16" s="156"/>
-      <c r="N16" s="156"/>
-      <c r="O16" s="156"/>
-      <c r="P16" s="157"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="158"/>
+      <c r="K16" s="158"/>
+      <c r="L16" s="158"/>
+      <c r="M16" s="158"/>
+      <c r="N16" s="158"/>
+      <c r="O16" s="158"/>
+      <c r="P16" s="159"/>
       <c r="R16" s="11" t="s">
         <v>622</v>
       </c>
@@ -25503,21 +25503,21 @@
     <row r="18" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="103"/>
       <c r="C18" s="104"/>
-      <c r="D18" s="156" t="s">
+      <c r="D18" s="158" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="156"/>
-      <c r="F18" s="156"/>
-      <c r="G18" s="156"/>
-      <c r="H18" s="156"/>
-      <c r="I18" s="156"/>
-      <c r="J18" s="156"/>
-      <c r="K18" s="156"/>
-      <c r="L18" s="156"/>
-      <c r="M18" s="156"/>
-      <c r="N18" s="156"/>
-      <c r="O18" s="156"/>
-      <c r="P18" s="157"/>
+      <c r="E18" s="158"/>
+      <c r="F18" s="158"/>
+      <c r="G18" s="158"/>
+      <c r="H18" s="158"/>
+      <c r="I18" s="158"/>
+      <c r="J18" s="158"/>
+      <c r="K18" s="158"/>
+      <c r="L18" s="158"/>
+      <c r="M18" s="158"/>
+      <c r="N18" s="158"/>
+      <c r="O18" s="158"/>
+      <c r="P18" s="159"/>
       <c r="R18" s="60"/>
       <c r="S18" s="92"/>
       <c r="T18" s="92"/>
@@ -25525,21 +25525,21 @@
     <row r="19" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="103"/>
       <c r="C19" s="104"/>
-      <c r="D19" s="156" t="s">
+      <c r="D19" s="158" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="156"/>
-      <c r="F19" s="156"/>
-      <c r="G19" s="156"/>
-      <c r="H19" s="156"/>
-      <c r="I19" s="156"/>
-      <c r="J19" s="156"/>
-      <c r="K19" s="156"/>
-      <c r="L19" s="156"/>
-      <c r="M19" s="156"/>
-      <c r="N19" s="156"/>
-      <c r="O19" s="156"/>
-      <c r="P19" s="157"/>
+      <c r="E19" s="158"/>
+      <c r="F19" s="158"/>
+      <c r="G19" s="158"/>
+      <c r="H19" s="158"/>
+      <c r="I19" s="158"/>
+      <c r="J19" s="158"/>
+      <c r="K19" s="158"/>
+      <c r="L19" s="158"/>
+      <c r="M19" s="158"/>
+      <c r="N19" s="158"/>
+      <c r="O19" s="158"/>
+      <c r="P19" s="159"/>
       <c r="R19" s="60"/>
       <c r="S19" s="92"/>
       <c r="T19" s="92"/>
@@ -25547,21 +25547,21 @@
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="103"/>
       <c r="C20" s="104"/>
-      <c r="D20" s="156" t="s">
+      <c r="D20" s="158" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="156"/>
-      <c r="F20" s="156"/>
-      <c r="G20" s="156"/>
-      <c r="H20" s="156"/>
-      <c r="I20" s="156"/>
-      <c r="J20" s="156"/>
-      <c r="K20" s="156"/>
-      <c r="L20" s="156"/>
-      <c r="M20" s="156"/>
-      <c r="N20" s="156"/>
-      <c r="O20" s="156"/>
-      <c r="P20" s="157"/>
+      <c r="E20" s="158"/>
+      <c r="F20" s="158"/>
+      <c r="G20" s="158"/>
+      <c r="H20" s="158"/>
+      <c r="I20" s="158"/>
+      <c r="J20" s="158"/>
+      <c r="K20" s="158"/>
+      <c r="L20" s="158"/>
+      <c r="M20" s="158"/>
+      <c r="N20" s="158"/>
+      <c r="O20" s="158"/>
+      <c r="P20" s="159"/>
       <c r="R20" s="60"/>
       <c r="S20" s="92"/>
       <c r="T20" s="92"/>
@@ -25569,21 +25569,21 @@
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="103"/>
       <c r="C21" s="104"/>
-      <c r="D21" s="156" t="s">
+      <c r="D21" s="158" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="156"/>
-      <c r="F21" s="156"/>
-      <c r="G21" s="156"/>
-      <c r="H21" s="156"/>
-      <c r="I21" s="156"/>
-      <c r="J21" s="156"/>
-      <c r="K21" s="156"/>
-      <c r="L21" s="156"/>
-      <c r="M21" s="156"/>
-      <c r="N21" s="156"/>
-      <c r="O21" s="156"/>
-      <c r="P21" s="157"/>
+      <c r="E21" s="158"/>
+      <c r="F21" s="158"/>
+      <c r="G21" s="158"/>
+      <c r="H21" s="158"/>
+      <c r="I21" s="158"/>
+      <c r="J21" s="158"/>
+      <c r="K21" s="158"/>
+      <c r="L21" s="158"/>
+      <c r="M21" s="158"/>
+      <c r="N21" s="158"/>
+      <c r="O21" s="158"/>
+      <c r="P21" s="159"/>
       <c r="R21" s="60"/>
       <c r="S21" s="92"/>
       <c r="T21" s="92"/>
@@ -25591,21 +25591,21 @@
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="103"/>
       <c r="C22" s="104"/>
-      <c r="D22" s="156" t="s">
+      <c r="D22" s="158" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="156"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="156"/>
-      <c r="K22" s="156"/>
-      <c r="L22" s="156"/>
-      <c r="M22" s="156"/>
-      <c r="N22" s="156"/>
-      <c r="O22" s="156"/>
-      <c r="P22" s="157"/>
+      <c r="E22" s="158"/>
+      <c r="F22" s="158"/>
+      <c r="G22" s="158"/>
+      <c r="H22" s="158"/>
+      <c r="I22" s="158"/>
+      <c r="J22" s="158"/>
+      <c r="K22" s="158"/>
+      <c r="L22" s="158"/>
+      <c r="M22" s="158"/>
+      <c r="N22" s="158"/>
+      <c r="O22" s="158"/>
+      <c r="P22" s="159"/>
       <c r="R22" s="60"/>
       <c r="S22" s="92"/>
       <c r="T22" s="92"/>
@@ -25613,21 +25613,21 @@
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="103"/>
       <c r="C23" s="104"/>
-      <c r="D23" s="156" t="s">
+      <c r="D23" s="158" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="156"/>
-      <c r="F23" s="156"/>
-      <c r="G23" s="156"/>
-      <c r="H23" s="156"/>
-      <c r="I23" s="156"/>
-      <c r="J23" s="156"/>
-      <c r="K23" s="156"/>
-      <c r="L23" s="156"/>
-      <c r="M23" s="156"/>
-      <c r="N23" s="156"/>
-      <c r="O23" s="156"/>
-      <c r="P23" s="157"/>
+      <c r="E23" s="158"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="158"/>
+      <c r="H23" s="158"/>
+      <c r="I23" s="158"/>
+      <c r="J23" s="158"/>
+      <c r="K23" s="158"/>
+      <c r="L23" s="158"/>
+      <c r="M23" s="158"/>
+      <c r="N23" s="158"/>
+      <c r="O23" s="158"/>
+      <c r="P23" s="159"/>
       <c r="R23" s="60"/>
       <c r="S23" s="92"/>
       <c r="T23" s="92"/>
@@ -25635,21 +25635,21 @@
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="103"/>
       <c r="C24" s="104"/>
-      <c r="D24" s="156" t="s">
+      <c r="D24" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="156"/>
-      <c r="F24" s="156"/>
-      <c r="G24" s="156"/>
-      <c r="H24" s="156"/>
-      <c r="I24" s="156"/>
-      <c r="J24" s="156"/>
-      <c r="K24" s="156"/>
-      <c r="L24" s="156"/>
-      <c r="M24" s="156"/>
-      <c r="N24" s="156"/>
-      <c r="O24" s="156"/>
-      <c r="P24" s="157"/>
+      <c r="E24" s="158"/>
+      <c r="F24" s="158"/>
+      <c r="G24" s="158"/>
+      <c r="H24" s="158"/>
+      <c r="I24" s="158"/>
+      <c r="J24" s="158"/>
+      <c r="K24" s="158"/>
+      <c r="L24" s="158"/>
+      <c r="M24" s="158"/>
+      <c r="N24" s="158"/>
+      <c r="O24" s="158"/>
+      <c r="P24" s="159"/>
       <c r="R24" s="60"/>
       <c r="S24" s="92"/>
       <c r="T24" s="92"/>
@@ -25657,21 +25657,21 @@
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="103"/>
       <c r="C25" s="104"/>
-      <c r="D25" s="156" t="s">
+      <c r="D25" s="158" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="156"/>
-      <c r="F25" s="156"/>
-      <c r="G25" s="156"/>
-      <c r="H25" s="156"/>
-      <c r="I25" s="156"/>
-      <c r="J25" s="156"/>
-      <c r="K25" s="156"/>
-      <c r="L25" s="156"/>
-      <c r="M25" s="156"/>
-      <c r="N25" s="156"/>
-      <c r="O25" s="156"/>
-      <c r="P25" s="157"/>
+      <c r="E25" s="158"/>
+      <c r="F25" s="158"/>
+      <c r="G25" s="158"/>
+      <c r="H25" s="158"/>
+      <c r="I25" s="158"/>
+      <c r="J25" s="158"/>
+      <c r="K25" s="158"/>
+      <c r="L25" s="158"/>
+      <c r="M25" s="158"/>
+      <c r="N25" s="158"/>
+      <c r="O25" s="158"/>
+      <c r="P25" s="159"/>
       <c r="R25" s="60"/>
       <c r="S25" s="92"/>
       <c r="T25" s="92"/>
@@ -25679,21 +25679,21 @@
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="103"/>
       <c r="C26" s="104"/>
-      <c r="D26" s="156" t="s">
+      <c r="D26" s="158" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="156"/>
-      <c r="F26" s="156"/>
-      <c r="G26" s="156"/>
-      <c r="H26" s="156"/>
-      <c r="I26" s="156"/>
-      <c r="J26" s="156"/>
-      <c r="K26" s="156"/>
-      <c r="L26" s="156"/>
-      <c r="M26" s="156"/>
-      <c r="N26" s="156"/>
-      <c r="O26" s="156"/>
-      <c r="P26" s="157"/>
+      <c r="E26" s="158"/>
+      <c r="F26" s="158"/>
+      <c r="G26" s="158"/>
+      <c r="H26" s="158"/>
+      <c r="I26" s="158"/>
+      <c r="J26" s="158"/>
+      <c r="K26" s="158"/>
+      <c r="L26" s="158"/>
+      <c r="M26" s="158"/>
+      <c r="N26" s="158"/>
+      <c r="O26" s="158"/>
+      <c r="P26" s="159"/>
       <c r="R26" s="60"/>
       <c r="S26" s="92"/>
       <c r="T26" s="92"/>
@@ -25701,21 +25701,21 @@
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="103"/>
       <c r="C27" s="104"/>
-      <c r="D27" s="156" t="s">
+      <c r="D27" s="158" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="156"/>
-      <c r="F27" s="156"/>
-      <c r="G27" s="156"/>
-      <c r="H27" s="156"/>
-      <c r="I27" s="156"/>
-      <c r="J27" s="156"/>
-      <c r="K27" s="156"/>
-      <c r="L27" s="156"/>
-      <c r="M27" s="156"/>
-      <c r="N27" s="156"/>
-      <c r="O27" s="156"/>
-      <c r="P27" s="157"/>
+      <c r="E27" s="158"/>
+      <c r="F27" s="158"/>
+      <c r="G27" s="158"/>
+      <c r="H27" s="158"/>
+      <c r="I27" s="158"/>
+      <c r="J27" s="158"/>
+      <c r="K27" s="158"/>
+      <c r="L27" s="158"/>
+      <c r="M27" s="158"/>
+      <c r="N27" s="158"/>
+      <c r="O27" s="158"/>
+      <c r="P27" s="159"/>
       <c r="R27" s="60"/>
       <c r="S27" s="92"/>
       <c r="T27" s="92"/>
@@ -25742,22 +25742,22 @@
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="103"/>
-      <c r="C29" s="154" t="s">
+      <c r="C29" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="154"/>
-      <c r="E29" s="154"/>
-      <c r="F29" s="154"/>
-      <c r="G29" s="154"/>
-      <c r="H29" s="154"/>
-      <c r="I29" s="154"/>
-      <c r="J29" s="154"/>
-      <c r="K29" s="154"/>
-      <c r="L29" s="154"/>
-      <c r="M29" s="154"/>
-      <c r="N29" s="154"/>
-      <c r="O29" s="154"/>
-      <c r="P29" s="155"/>
+      <c r="D29" s="156"/>
+      <c r="E29" s="156"/>
+      <c r="F29" s="156"/>
+      <c r="G29" s="156"/>
+      <c r="H29" s="156"/>
+      <c r="I29" s="156"/>
+      <c r="J29" s="156"/>
+      <c r="K29" s="156"/>
+      <c r="L29" s="156"/>
+      <c r="M29" s="156"/>
+      <c r="N29" s="156"/>
+      <c r="O29" s="156"/>
+      <c r="P29" s="157"/>
       <c r="R29" s="60"/>
       <c r="S29" s="92"/>
       <c r="T29" s="92"/>
@@ -25765,21 +25765,21 @@
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" s="103"/>
       <c r="C30" s="104"/>
-      <c r="D30" s="156" t="s">
+      <c r="D30" s="158" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="156"/>
-      <c r="F30" s="156"/>
-      <c r="G30" s="156"/>
-      <c r="H30" s="156"/>
-      <c r="I30" s="156"/>
-      <c r="J30" s="156"/>
-      <c r="K30" s="156"/>
-      <c r="L30" s="156"/>
-      <c r="M30" s="156"/>
-      <c r="N30" s="156"/>
-      <c r="O30" s="156"/>
-      <c r="P30" s="157"/>
+      <c r="E30" s="158"/>
+      <c r="F30" s="158"/>
+      <c r="G30" s="158"/>
+      <c r="H30" s="158"/>
+      <c r="I30" s="158"/>
+      <c r="J30" s="158"/>
+      <c r="K30" s="158"/>
+      <c r="L30" s="158"/>
+      <c r="M30" s="158"/>
+      <c r="N30" s="158"/>
+      <c r="O30" s="158"/>
+      <c r="P30" s="159"/>
       <c r="R30" s="60"/>
       <c r="S30" s="92"/>
       <c r="T30" s="92"/>
@@ -25787,21 +25787,21 @@
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B31" s="103"/>
       <c r="C31" s="104"/>
-      <c r="D31" s="156" t="s">
+      <c r="D31" s="158" t="s">
         <v>82</v>
       </c>
-      <c r="E31" s="156"/>
-      <c r="F31" s="156"/>
-      <c r="G31" s="156"/>
-      <c r="H31" s="156"/>
-      <c r="I31" s="156"/>
-      <c r="J31" s="156"/>
-      <c r="K31" s="156"/>
-      <c r="L31" s="156"/>
-      <c r="M31" s="156"/>
-      <c r="N31" s="156"/>
-      <c r="O31" s="156"/>
-      <c r="P31" s="157"/>
+      <c r="E31" s="158"/>
+      <c r="F31" s="158"/>
+      <c r="G31" s="158"/>
+      <c r="H31" s="158"/>
+      <c r="I31" s="158"/>
+      <c r="J31" s="158"/>
+      <c r="K31" s="158"/>
+      <c r="L31" s="158"/>
+      <c r="M31" s="158"/>
+      <c r="N31" s="158"/>
+      <c r="O31" s="158"/>
+      <c r="P31" s="159"/>
       <c r="R31" s="60"/>
       <c r="S31" s="92"/>
       <c r="T31" s="92"/>
@@ -25809,21 +25809,21 @@
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B32" s="103"/>
       <c r="C32" s="104"/>
-      <c r="D32" s="156" t="s">
+      <c r="D32" s="158" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="156"/>
-      <c r="F32" s="156"/>
-      <c r="G32" s="156"/>
-      <c r="H32" s="156"/>
-      <c r="I32" s="156"/>
-      <c r="J32" s="156"/>
-      <c r="K32" s="156"/>
-      <c r="L32" s="156"/>
-      <c r="M32" s="156"/>
-      <c r="N32" s="156"/>
-      <c r="O32" s="156"/>
-      <c r="P32" s="157"/>
+      <c r="E32" s="158"/>
+      <c r="F32" s="158"/>
+      <c r="G32" s="158"/>
+      <c r="H32" s="158"/>
+      <c r="I32" s="158"/>
+      <c r="J32" s="158"/>
+      <c r="K32" s="158"/>
+      <c r="L32" s="158"/>
+      <c r="M32" s="158"/>
+      <c r="N32" s="158"/>
+      <c r="O32" s="158"/>
+      <c r="P32" s="159"/>
       <c r="R32" s="60"/>
       <c r="S32" s="92"/>
       <c r="T32" s="92"/>
@@ -25831,21 +25831,21 @@
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33" s="103"/>
       <c r="C33" s="104"/>
-      <c r="D33" s="156" t="s">
+      <c r="D33" s="158" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="156"/>
-      <c r="F33" s="156"/>
-      <c r="G33" s="156"/>
-      <c r="H33" s="156"/>
-      <c r="I33" s="156"/>
-      <c r="J33" s="156"/>
-      <c r="K33" s="156"/>
-      <c r="L33" s="156"/>
-      <c r="M33" s="156"/>
-      <c r="N33" s="156"/>
-      <c r="O33" s="156"/>
-      <c r="P33" s="157"/>
+      <c r="E33" s="158"/>
+      <c r="F33" s="158"/>
+      <c r="G33" s="158"/>
+      <c r="H33" s="158"/>
+      <c r="I33" s="158"/>
+      <c r="J33" s="158"/>
+      <c r="K33" s="158"/>
+      <c r="L33" s="158"/>
+      <c r="M33" s="158"/>
+      <c r="N33" s="158"/>
+      <c r="O33" s="158"/>
+      <c r="P33" s="159"/>
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
       <c r="T33" s="11"/>
@@ -25853,21 +25853,21 @@
     <row r="34" spans="2:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="103"/>
       <c r="C34" s="104"/>
-      <c r="D34" s="150" t="s">
+      <c r="D34" s="160" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="150"/>
-      <c r="K34" s="150"/>
-      <c r="L34" s="150"/>
-      <c r="M34" s="150"/>
-      <c r="N34" s="150"/>
-      <c r="O34" s="150"/>
-      <c r="P34" s="151"/>
+      <c r="E34" s="160"/>
+      <c r="F34" s="160"/>
+      <c r="G34" s="160"/>
+      <c r="H34" s="160"/>
+      <c r="I34" s="160"/>
+      <c r="J34" s="160"/>
+      <c r="K34" s="160"/>
+      <c r="L34" s="160"/>
+      <c r="M34" s="160"/>
+      <c r="N34" s="160"/>
+      <c r="O34" s="160"/>
+      <c r="P34" s="161"/>
       <c r="R34" s="11"/>
       <c r="S34" s="11"/>
       <c r="T34" s="11"/>
@@ -25875,21 +25875,21 @@
     <row r="35" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="103"/>
       <c r="C35" s="104"/>
-      <c r="D35" s="150" t="s">
+      <c r="D35" s="160" t="s">
         <v>83</v>
       </c>
-      <c r="E35" s="150"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="150"/>
-      <c r="I35" s="150"/>
-      <c r="J35" s="150"/>
-      <c r="K35" s="150"/>
-      <c r="L35" s="150"/>
-      <c r="M35" s="150"/>
-      <c r="N35" s="150"/>
-      <c r="O35" s="150"/>
-      <c r="P35" s="151"/>
+      <c r="E35" s="160"/>
+      <c r="F35" s="160"/>
+      <c r="G35" s="160"/>
+      <c r="H35" s="160"/>
+      <c r="I35" s="160"/>
+      <c r="J35" s="160"/>
+      <c r="K35" s="160"/>
+      <c r="L35" s="160"/>
+      <c r="M35" s="160"/>
+      <c r="N35" s="160"/>
+      <c r="O35" s="160"/>
+      <c r="P35" s="161"/>
       <c r="R35" s="11"/>
       <c r="S35" s="11"/>
       <c r="T35" s="11"/>
@@ -25897,21 +25897,21 @@
     <row r="36" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="109"/>
       <c r="C36" s="110"/>
-      <c r="D36" s="152" t="s">
+      <c r="D36" s="162" t="s">
         <v>84</v>
       </c>
-      <c r="E36" s="152"/>
-      <c r="F36" s="152"/>
-      <c r="G36" s="152"/>
-      <c r="H36" s="152"/>
-      <c r="I36" s="152"/>
-      <c r="J36" s="152"/>
-      <c r="K36" s="152"/>
-      <c r="L36" s="152"/>
-      <c r="M36" s="152"/>
-      <c r="N36" s="152"/>
-      <c r="O36" s="152"/>
-      <c r="P36" s="153"/>
+      <c r="E36" s="162"/>
+      <c r="F36" s="162"/>
+      <c r="G36" s="162"/>
+      <c r="H36" s="162"/>
+      <c r="I36" s="162"/>
+      <c r="J36" s="162"/>
+      <c r="K36" s="162"/>
+      <c r="L36" s="162"/>
+      <c r="M36" s="162"/>
+      <c r="N36" s="162"/>
+      <c r="O36" s="162"/>
+      <c r="P36" s="163"/>
       <c r="R36" s="11"/>
       <c r="S36" s="11"/>
       <c r="T36" s="11"/>
@@ -25988,6 +25988,26 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="D35:P35"/>
+    <mergeCell ref="D36:P36"/>
+    <mergeCell ref="C29:P29"/>
+    <mergeCell ref="D30:P30"/>
+    <mergeCell ref="D31:P31"/>
+    <mergeCell ref="D32:P32"/>
+    <mergeCell ref="D33:P33"/>
+    <mergeCell ref="D34:P34"/>
+    <mergeCell ref="D27:P27"/>
+    <mergeCell ref="C15:P15"/>
+    <mergeCell ref="D16:P16"/>
+    <mergeCell ref="D18:P18"/>
+    <mergeCell ref="D19:P19"/>
+    <mergeCell ref="D20:P20"/>
+    <mergeCell ref="D21:P21"/>
+    <mergeCell ref="D22:P22"/>
+    <mergeCell ref="D23:P23"/>
+    <mergeCell ref="D24:P24"/>
+    <mergeCell ref="D25:P25"/>
+    <mergeCell ref="D26:P26"/>
     <mergeCell ref="B14:P14"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
@@ -26000,26 +26020,6 @@
     <mergeCell ref="D10:P10"/>
     <mergeCell ref="C11:P11"/>
     <mergeCell ref="C12:P12"/>
-    <mergeCell ref="D27:P27"/>
-    <mergeCell ref="C15:P15"/>
-    <mergeCell ref="D16:P16"/>
-    <mergeCell ref="D18:P18"/>
-    <mergeCell ref="D19:P19"/>
-    <mergeCell ref="D20:P20"/>
-    <mergeCell ref="D21:P21"/>
-    <mergeCell ref="D22:P22"/>
-    <mergeCell ref="D23:P23"/>
-    <mergeCell ref="D24:P24"/>
-    <mergeCell ref="D25:P25"/>
-    <mergeCell ref="D26:P26"/>
-    <mergeCell ref="D35:P35"/>
-    <mergeCell ref="D36:P36"/>
-    <mergeCell ref="C29:P29"/>
-    <mergeCell ref="D30:P30"/>
-    <mergeCell ref="D31:P31"/>
-    <mergeCell ref="D32:P32"/>
-    <mergeCell ref="D33:P33"/>
-    <mergeCell ref="D34:P34"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
